--- a/hores_tfg_.xlsx
+++ b/hores_tfg_.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tfg\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20120" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="hores_tfg_" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>hores</t>
   </si>
@@ -67,9 +72,6 @@
   </si>
   <si>
     <t>aprendizaje mas profundo de php a traves de w3schools</t>
-  </si>
-  <si>
-    <t>avance redaccion</t>
   </si>
   <si>
     <t>implementación de la tabla global (fusión de asignaturas y profesores), importación de datos en esta de forma correcta</t>
@@ -152,9 +154,6 @@
     <t>redactar/formato word</t>
   </si>
   <si>
-    <t xml:space="preserve"> configuracion envio de mail automaticamente (phpmailer, leer docuentación e instalar), arreglar ids para que sean consecutivos</t>
-  </si>
-  <si>
     <t xml:space="preserve">empezar a implementar la funcionalidad de escoger grupos </t>
   </si>
   <si>
@@ -204,9 +203,6 @@
     <t>arreglar error veresión local y cambiar forma de bajar excel en la del servidor ara hacer la web más eficiente</t>
   </si>
   <si>
-    <t>perfeccionar web</t>
-  </si>
-  <si>
     <t>arreglar visualizacion mobil</t>
   </si>
   <si>
@@ -217,6 +213,30 @@
   </si>
   <si>
     <t xml:space="preserve">acabar de redactar primera versión+ validación </t>
+  </si>
+  <si>
+    <t>arreglar tabla profesores</t>
+  </si>
+  <si>
+    <t>avance redacción</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> configuración envío de mail automaticamente (phpmailer, leer docuentación e instalar), arreglar ids para que sean consecutivos</t>
+  </si>
+  <si>
+    <t>Añadir ventana informativa sobre estado, arreglar pie de página</t>
+  </si>
+  <si>
+    <t>configurar formato campos de la base de datos, personalizar mensaje error inicio sesión</t>
+  </si>
+  <si>
+    <t>perfeccionar web, añadir botón ir hacia atrás para las opciones del admin</t>
+  </si>
+  <si>
+    <t>implementar botones de borrar todos los profesores/asignaturas y configurar ventanta de confirmación de la acción</t>
+  </si>
+  <si>
+    <t>crear página mostrar datos personales profesor</t>
   </si>
 </sst>
 </file>
@@ -291,12 +311,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -338,7 +361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,7 +396,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -582,20 +605,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="174.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="1"/>
+    <col min="3" max="3" width="174.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -603,16 +626,16 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <f>SUM(B3:B596)</f>
-        <v>247.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <f>SUM(B3:B598)</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43628</v>
       </c>
@@ -623,7 +646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43650</v>
       </c>
@@ -634,18 +657,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43652</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43725</v>
       </c>
@@ -656,7 +679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43727</v>
       </c>
@@ -667,7 +690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43731</v>
       </c>
@@ -678,7 +701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43734</v>
       </c>
@@ -689,7 +712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43737</v>
       </c>
@@ -697,10 +720,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43740</v>
       </c>
@@ -711,7 +734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43741</v>
       </c>
@@ -722,18 +745,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43743</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43745</v>
       </c>
@@ -741,681 +764,712 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>43746</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>43749</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>43751</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>43755</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>43756</v>
+      </c>
+      <c r="B20">
+        <v>1.5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>43757</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>43758</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>43749</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>43761</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>43751</v>
-      </c>
-      <c r="B16">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>43763</v>
+      </c>
+      <c r="B24">
+        <v>7.5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>43765</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>43766</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>43767</v>
+      </c>
+      <c r="B27">
+        <v>1.5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>43771</v>
+      </c>
+      <c r="B28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>43775</v>
+      </c>
+      <c r="B29">
         <v>3</v>
       </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>43755</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>43756</v>
-      </c>
-      <c r="B18">
-        <v>1.5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>43758</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>43761</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>43763</v>
-      </c>
-      <c r="B21">
-        <v>5.5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>43765</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>43766</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>43767</v>
-      </c>
-      <c r="B24">
-        <v>1.5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>43771</v>
-      </c>
-      <c r="B25" s="3">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>43775</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <v>43779</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>43780</v>
-      </c>
-      <c r="B28" s="3">
-        <v>2</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>43781</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>43782</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>43780</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>43781</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>43782</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>43783</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>43786</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>43787</v>
+      </c>
+      <c r="B36">
+        <v>1.5</v>
+      </c>
+      <c r="C36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>43783</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>43786</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>43789</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>43788</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <v>43791</v>
       </c>
-      <c r="B34">
+      <c r="B38">
         <v>3.5</v>
       </c>
-      <c r="C34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
         <v>43793</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>43795</v>
-      </c>
-      <c r="B36">
-        <v>5</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>43796</v>
-      </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>43799</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>43800</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>43801</v>
+        <v>43795</v>
       </c>
       <c r="B40">
         <v>7</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>43796</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>43799</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>43801</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>43803</v>
+      </c>
+      <c r="B45" s="3">
+        <v>4</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>43804</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>43805</v>
+      </c>
+      <c r="B47" s="7">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B48" s="3">
+        <v>4</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>43808</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>43809</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="3">
+        <v>4</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>43814</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>43815</v>
+      </c>
+      <c r="B53">
+        <v>4.5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>43816</v>
+      </c>
+      <c r="B54" s="3">
+        <v>6</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>43803</v>
-      </c>
-      <c r="B41" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>43804</v>
-      </c>
-      <c r="B42">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>43805</v>
-      </c>
-      <c r="B43" s="7">
+    <row r="55" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>43817</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>43818</v>
+      </c>
+      <c r="B56">
         <v>5</v>
       </c>
-      <c r="C43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43807</v>
-      </c>
-      <c r="B44" s="3">
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>43819</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>43820</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>43821</v>
+      </c>
+      <c r="B59">
+        <v>1.5</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>43823</v>
+      </c>
+      <c r="B60">
         <v>3</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>43809</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="3">
-        <v>4</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>43814</v>
-      </c>
-      <c r="B47" s="3">
-        <v>2</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>43815</v>
-      </c>
-      <c r="B48">
+      <c r="C60" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>43824</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>43825</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>43826</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>43827</v>
+      </c>
+      <c r="B64">
         <v>4.5</v>
       </c>
-      <c r="C48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>43816</v>
-      </c>
-      <c r="B49" s="3">
-        <v>6</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>43817</v>
-      </c>
-      <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>43818</v>
-      </c>
-      <c r="B51">
-        <v>4</v>
-      </c>
-      <c r="C51" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>43819</v>
-      </c>
-      <c r="B52">
-        <v>4</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>43820</v>
-      </c>
-      <c r="B53" s="3">
-        <v>2</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>43821</v>
-      </c>
-      <c r="B54">
-        <v>1.5</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>43823</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-      <c r="C55" s="4" t="s">
+      <c r="C64" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>43824</v>
-      </c>
-      <c r="B56">
-        <v>2</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>43825</v>
-      </c>
-      <c r="B57">
-        <v>1.5</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>43826</v>
-      </c>
-      <c r="B58">
-        <v>4</v>
-      </c>
-      <c r="C58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>43827</v>
-      </c>
-      <c r="B59">
-        <v>4.5</v>
-      </c>
-      <c r="C59" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
         <v>43828</v>
       </c>
-      <c r="B60">
-        <v>4</v>
-      </c>
-      <c r="C60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
         <v>43829</v>
       </c>
-      <c r="B61" s="3">
-        <v>4</v>
-      </c>
-      <c r="C61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="B66" s="3">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
         <v>43830</v>
-      </c>
-      <c r="B62" s="3">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>43831</v>
-      </c>
-      <c r="B63" s="3">
-        <v>2</v>
-      </c>
-      <c r="C63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>43832</v>
-      </c>
-      <c r="B64" s="3">
-        <v>7</v>
-      </c>
-      <c r="C64" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>43833</v>
-      </c>
-      <c r="B65" s="3">
-        <v>4</v>
-      </c>
-      <c r="C65" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>43834</v>
-      </c>
-      <c r="B66" s="3">
-        <v>8</v>
-      </c>
-      <c r="C66" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>43835</v>
       </c>
       <c r="B67" s="3">
         <v>3</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>43832</v>
+      </c>
+      <c r="B69" s="3">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>43833</v>
+      </c>
+      <c r="B70" s="3">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>43834</v>
+      </c>
+      <c r="B71" s="3">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>43835</v>
+      </c>
+      <c r="B72" s="3">
+        <v>3</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
         <v>43836</v>
       </c>
-      <c r="B68" s="3">
-        <v>4</v>
-      </c>
-      <c r="C68" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+      <c r="B73" s="3">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
         <v>43837</v>
       </c>
-      <c r="B69" s="3">
-        <v>4</v>
-      </c>
-      <c r="C69" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+      <c r="B74" s="3">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
         <v>43838</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B75" s="3">
         <v>6</v>
       </c>
-      <c r="C70" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+      <c r="C75" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
         <v>43839</v>
       </c>
-      <c r="B71" s="3">
-        <v>2</v>
-      </c>
-      <c r="C71" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>43840</v>
-      </c>
-      <c r="B72" s="3">
-        <v>2</v>
-      </c>
-      <c r="C72" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>43841</v>
-      </c>
-      <c r="B73" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>43842</v>
-      </c>
-      <c r="B74" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>43843</v>
-      </c>
-      <c r="B75" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>43845</v>
-      </c>
       <c r="B76" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>43840</v>
+      </c>
+      <c r="B77" s="3">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>43845</v>
+      </c>
+      <c r="B78" s="3">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1430,7 +1484,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1442,7 +1496,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hores_tfg_.xlsx
+++ b/hores_tfg_.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>hores</t>
   </si>
@@ -200,9 +200,6 @@
     <t>redactar+ arreglar boton ir hacia atrás + editar admin</t>
   </si>
   <si>
-    <t>arreglar error veresión local y cambiar forma de bajar excel en la del servidor ara hacer la web más eficiente</t>
-  </si>
-  <si>
     <t>arreglar visualizacion mobil</t>
   </si>
   <si>
@@ -237,6 +234,12 @@
   </si>
   <si>
     <t>crear página mostrar datos personales profesor</t>
+  </si>
+  <si>
+    <t>arreglar error versión local y cambiar forma de bajar excel en la del servidor ara hacer la web más eficiente</t>
+  </si>
+  <si>
+    <t>empezar power</t>
   </si>
 </sst>
 </file>
@@ -605,11 +608,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -632,7 +635,7 @@
       </c>
       <c r="B2">
         <f>SUM(B3:B598)</f>
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -775,7 +778,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -797,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -841,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -907,7 +910,7 @@
         <v>1.5</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1018,7 +1021,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -1051,7 +1054,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -1150,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -1293,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -1359,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -1436,7 +1439,7 @@
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -1447,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -1458,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -1469,7 +1472,18 @@
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>58</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>43848</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/hores_tfg_.xlsx
+++ b/hores_tfg_.xlsx
@@ -608,11 +608,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="B2">
         <f>SUM(B3:B598)</f>
-        <v>259</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -654,7 +654,7 @@
         <v>43650</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -764,7 +764,7 @@
         <v>43745</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>48</v>
@@ -1469,7 +1469,7 @@
         <v>43845</v>
       </c>
       <c r="B78" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C78" t="s">
         <v>70</v>
@@ -1484,6 +1484,86 @@
       </c>
       <c r="C79" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>43849</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>43850</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>43853</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>43855</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>43856</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>43857</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>43858</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/hores_tfg_.xlsx
+++ b/hores_tfg_.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tfg\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20120" windowHeight="8520"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="hores_tfg_" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>hores</t>
   </si>
@@ -240,6 +235,12 @@
   </si>
   <si>
     <t>empezar power</t>
+  </si>
+  <si>
+    <t>interficie visual</t>
+  </si>
+  <si>
+    <t>presentacion</t>
   </si>
 </sst>
 </file>
@@ -322,7 +323,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -364,7 +365,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -399,7 +400,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -608,20 +609,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="1"/>
-    <col min="3" max="3" width="174.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="174.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -629,16 +630,16 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <f>SUM(B3:B598)</f>
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <f>SUM(B3:B599)</f>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43628</v>
       </c>
@@ -649,7 +650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43650</v>
       </c>
@@ -660,7 +661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43652</v>
       </c>
@@ -671,7 +672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43725</v>
       </c>
@@ -682,7 +683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43727</v>
       </c>
@@ -693,7 +694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43731</v>
       </c>
@@ -704,7 +705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43734</v>
       </c>
@@ -715,7 +716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43737</v>
       </c>
@@ -726,7 +727,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43740</v>
       </c>
@@ -737,7 +738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43741</v>
       </c>
@@ -748,7 +749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43743</v>
       </c>
@@ -759,7 +760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43745</v>
       </c>
@@ -770,7 +771,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43746</v>
       </c>
@@ -781,7 +782,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43749</v>
       </c>
@@ -792,7 +793,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>43750</v>
       </c>
@@ -803,7 +804,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43751</v>
       </c>
@@ -814,755 +815,769 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <v>43752</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>43755</v>
       </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>43756</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>1.5</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="22" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>43757</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="3">
         <v>3</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>43758</v>
       </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>43761</v>
       </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>43763</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>7.5</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>43765</v>
       </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
         <v>43766</v>
       </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>43767</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>1.5</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="29" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>43771</v>
       </c>
-      <c r="B28" s="3">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B29" s="3">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>43775</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>43779</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>43779</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>43780</v>
       </c>
-      <c r="B31" s="3">
-        <v>2</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B32" s="3">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>43781</v>
       </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <v>43782</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>3</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>43783</v>
       </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>43786</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>5</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>43787</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>1.5</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="38" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>43788</v>
       </c>
-      <c r="B37" s="3">
-        <v>2</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B38" s="3">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>43791</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>3.5</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>43793</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>3</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>43795</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>7</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>43796</v>
       </c>
-      <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>43799</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>43800</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="45" spans="1:3" ht="29.1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
         <v>43801</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>7</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="46" spans="1:3" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
         <v>43803</v>
       </c>
-      <c r="B45" s="3">
-        <v>4</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B46" s="3">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+    <row r="47" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
         <v>43804</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>6</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+    <row r="48" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
         <v>43805</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B48" s="7">
         <v>5</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+    <row r="49" spans="1:3" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
         <v>43807</v>
       </c>
-      <c r="B48" s="3">
-        <v>4</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B49" s="3">
+        <v>4</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+    <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>43808</v>
       </c>
-      <c r="B49" s="3">
-        <v>2</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="B50" s="3">
+        <v>2</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+    <row r="51" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
         <v>43809</v>
       </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="3">
-        <v>4</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B52" s="3">
+        <v>4</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+    <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>43814</v>
       </c>
-      <c r="B52" s="3">
-        <v>2</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="B53" s="3">
+        <v>2</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>43815</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>4.5</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+    <row r="55" spans="1:3" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
         <v>43816</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B55" s="3">
         <v>6</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>43817</v>
       </c>
-      <c r="B55">
-        <v>4</v>
-      </c>
-      <c r="C55" s="5" t="s">
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>43818</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>5</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>43819</v>
       </c>
-      <c r="B57">
-        <v>4</v>
-      </c>
-      <c r="C57" s="4" t="s">
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+    <row r="59" spans="1:3" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
         <v>43820</v>
       </c>
-      <c r="B58" s="3">
-        <v>2</v>
-      </c>
-      <c r="C58" s="4" t="s">
+      <c r="B59" s="3">
+        <v>2</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>43821</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>1.5</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>43823</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>3</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>43824</v>
       </c>
-      <c r="B61">
-        <v>2</v>
-      </c>
-      <c r="C61" s="4" t="s">
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>43825</v>
       </c>
-      <c r="B62">
-        <v>2</v>
-      </c>
-      <c r="C62" s="4" t="s">
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+    <row r="64" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
         <v>43826</v>
       </c>
-      <c r="B63">
-        <v>4</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+    <row r="65" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
         <v>43827</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>4.5</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+    <row r="66" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
         <v>43828</v>
       </c>
-      <c r="B65">
-        <v>4</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+    <row r="67" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
         <v>43829</v>
       </c>
-      <c r="B66" s="3">
-        <v>4</v>
-      </c>
-      <c r="C66" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>43830</v>
-      </c>
       <c r="B67" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B68" s="3">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
         <v>43831</v>
       </c>
-      <c r="B68" s="3">
-        <v>2</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B69" s="3">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+    <row r="70" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
         <v>43832</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B70" s="3">
         <v>7</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
+    <row r="71" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
         <v>43833</v>
       </c>
-      <c r="B70" s="3">
-        <v>4</v>
-      </c>
-      <c r="C70" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
-        <v>43834</v>
-      </c>
       <c r="B71" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C71" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
+        <v>43834</v>
+      </c>
+      <c r="B72" s="3">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
         <v>43835</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B73" s="3">
         <v>3</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+    <row r="74" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
         <v>43836</v>
       </c>
-      <c r="B73" s="3">
-        <v>4</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B74" s="3">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>43837</v>
       </c>
-      <c r="B74" s="3">
-        <v>4</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B75" s="3">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>43838</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B76" s="3">
         <v>6</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+    <row r="77" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
         <v>43839</v>
       </c>
-      <c r="B76" s="3">
-        <v>2</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B77" s="3">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
+    <row r="78" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
         <v>43840</v>
       </c>
-      <c r="B77" s="3">
-        <v>2</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B78" s="3">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>43845</v>
       </c>
-      <c r="B78" s="3">
-        <v>4</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B79" s="3">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+    <row r="80" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
         <v>43848</v>
       </c>
-      <c r="B79">
+      <c r="B80">
         <v>1</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
+    <row r="81" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
         <v>43849</v>
       </c>
-      <c r="B80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
         <v>43850</v>
       </c>
-      <c r="B81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
+      <c r="B82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
         <v>43851</v>
       </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
+      <c r="B83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
         <v>43852</v>
       </c>
-      <c r="B83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
+      <c r="B84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
         <v>43853</v>
       </c>
-      <c r="B84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
+      <c r="B85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
         <v>43854</v>
       </c>
-      <c r="B85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
+      <c r="B86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
         <v>43855</v>
       </c>
-      <c r="B86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
+      <c r="B87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
         <v>43856</v>
       </c>
-      <c r="B87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
+      <c r="B88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
         <v>43857</v>
       </c>
-      <c r="B88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
+      <c r="B89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
         <v>43858</v>
       </c>
-      <c r="B89">
+      <c r="B90">
         <v>2</v>
       </c>
     </row>
@@ -1578,7 +1593,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1590,7 +1605,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
